--- a/0. FMEA SW Vaildation.xlsx
+++ b/0. FMEA SW Vaildation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\METABIOMED\1_System\iDOLPHIN\SoftwareValidation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\남윤수\Desktop\SW Validation\SW Validation (정현우 연구원 의견 반영)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1050,20 +1050,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,19 +1105,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,41 +1113,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1152,23 +1131,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1199,6 +1161,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1489,9 +1489,9 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L80" sqref="L80:L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1518,137 +1518,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42" t="s">
+      <c r="F1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="51" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="53"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="42"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="47" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="41" t="s">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="44" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
     </row>
     <row r="4" spans="1:24" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="1" t="s">
         <v>152</v>
       </c>
@@ -1661,10 +1661,10 @@
       <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="Q4" s="46"/>
+      <c r="Q4" s="35"/>
       <c r="R4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1680,54 +1680,54 @@
       <c r="V4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="22">
         <v>42</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="20">
-        <v>3</v>
-      </c>
-      <c r="M5" s="20">
+      <c r="L5" s="12">
+        <v>2</v>
+      </c>
+      <c r="M5" s="12">
         <v>5</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="15">
         <f t="shared" ref="N5:N47" si="0">L5*M5</f>
-        <v>15</v>
-      </c>
-      <c r="O5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -1739,127 +1739,127 @@
       <c r="R5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S5" s="30">
-        <v>2</v>
-      </c>
-      <c r="T5" s="23">
-        <v>2</v>
-      </c>
-      <c r="U5" s="23">
+      <c r="S5" s="15">
+        <v>2</v>
+      </c>
+      <c r="T5" s="16">
+        <v>2</v>
+      </c>
+      <c r="U5" s="16">
         <f t="shared" ref="U5:U47" si="1">S5*T5</f>
         <v>4</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="21"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="22"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="14"/>
       <c r="P7" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="22">
         <v>42</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="20">
-        <v>3</v>
-      </c>
-      <c r="M8" s="20">
+      <c r="L8" s="12">
+        <v>2</v>
+      </c>
+      <c r="M8" s="12">
         <v>5</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="O8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -1871,127 +1871,127 @@
       <c r="R8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S8" s="37">
-        <v>2</v>
-      </c>
-      <c r="T8" s="23">
-        <v>2</v>
-      </c>
-      <c r="U8" s="23">
+      <c r="S8" s="31">
+        <v>2</v>
+      </c>
+      <c r="T8" s="16">
+        <v>2</v>
+      </c>
+      <c r="U8" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="X8" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="21"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
     </row>
     <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="22"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="22">
         <v>42</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="12">
         <v>1</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="12">
         <v>5</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="12" t="s">
         <v>51</v>
       </c>
       <c r="P11" s="6" t="s">
@@ -2003,127 +2003,127 @@
       <c r="R11" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="12">
         <v>1</v>
       </c>
-      <c r="T11" s="20">
-        <v>2</v>
-      </c>
-      <c r="U11" s="23">
+      <c r="T11" s="12">
+        <v>2</v>
+      </c>
+      <c r="U11" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="V11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="W11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X11" s="10" t="s">
+      <c r="X11" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="21"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
     </row>
     <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="22"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="22">
         <v>42</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="20">
-        <v>2</v>
-      </c>
-      <c r="M14" s="20">
+      <c r="L14" s="12">
+        <v>2</v>
+      </c>
+      <c r="M14" s="12">
         <v>5</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="12" t="s">
         <v>173</v>
       </c>
       <c r="P14" s="6" t="s">
@@ -2135,127 +2135,127 @@
       <c r="R14" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="12">
         <v>1</v>
       </c>
-      <c r="T14" s="20">
-        <v>2</v>
-      </c>
-      <c r="U14" s="23">
+      <c r="T14" s="12">
+        <v>2</v>
+      </c>
+      <c r="U14" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="V14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="W14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X14" s="10" t="s">
+      <c r="X14" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="21"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="22"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="14"/>
       <c r="P16" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="22">
         <v>42</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="20">
-        <v>2</v>
-      </c>
-      <c r="M17" s="20">
+      <c r="L17" s="12">
+        <v>2</v>
+      </c>
+      <c r="M17" s="12">
         <v>5</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="15">
         <f t="shared" ref="N17" si="2">L17*M17</f>
         <v>10</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="12" t="s">
         <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
@@ -2267,127 +2267,127 @@
       <c r="R17" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S17" s="30">
+      <c r="S17" s="15">
         <v>1</v>
       </c>
-      <c r="T17" s="23">
-        <v>2</v>
-      </c>
-      <c r="U17" s="23">
+      <c r="T17" s="16">
+        <v>2</v>
+      </c>
+      <c r="U17" s="16">
         <f t="shared" ref="U17" si="3">S17*T17</f>
         <v>2</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="V17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="W17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="X17" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="21"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="13"/>
       <c r="P18" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="22"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="14"/>
       <c r="P19" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="22">
         <v>42</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="12">
         <v>1</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="12">
         <v>5</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="15">
         <f t="shared" ref="N20" si="4">L20*M20</f>
         <v>5</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="12" t="s">
         <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
@@ -2399,127 +2399,127 @@
       <c r="R20" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20" s="15">
         <v>1</v>
       </c>
-      <c r="T20" s="23">
-        <v>2</v>
-      </c>
-      <c r="U20" s="23">
+      <c r="T20" s="16">
+        <v>2</v>
+      </c>
+      <c r="U20" s="16">
         <f t="shared" ref="U20" si="5">S20*T20</f>
         <v>2</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="W20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="10" t="s">
+      <c r="X20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="21"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
     </row>
     <row r="22" spans="1:24" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="22"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="14"/>
       <c r="P22" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="22">
         <v>42</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="20">
-        <v>2</v>
-      </c>
-      <c r="M23" s="20">
+      <c r="L23" s="12">
+        <v>2</v>
+      </c>
+      <c r="M23" s="12">
         <v>5</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="12" t="s">
         <v>50</v>
       </c>
       <c r="P23" s="6" t="s">
@@ -2531,127 +2531,127 @@
       <c r="R23" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="30">
+      <c r="S23" s="15">
         <v>1</v>
       </c>
-      <c r="T23" s="23">
-        <v>2</v>
-      </c>
-      <c r="U23" s="23">
+      <c r="T23" s="16">
+        <v>2</v>
+      </c>
+      <c r="U23" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V23" s="9" t="s">
+      <c r="V23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="W23" s="10" t="s">
+      <c r="W23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X23" s="10" t="s">
+      <c r="X23" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="21"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="13"/>
       <c r="P24" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="22"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="14"/>
       <c r="P25" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="22">
         <v>42</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="20">
-        <v>3</v>
-      </c>
-      <c r="M26" s="20">
+      <c r="L26" s="12">
+        <v>2</v>
+      </c>
+      <c r="M26" s="12">
         <v>5</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="15">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="O26" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>173</v>
       </c>
       <c r="P26" s="6" t="s">
@@ -2663,127 +2663,127 @@
       <c r="R26" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S26" s="20">
-        <v>2</v>
-      </c>
-      <c r="T26" s="20">
-        <v>2</v>
-      </c>
-      <c r="U26" s="23">
+      <c r="S26" s="12">
+        <v>2</v>
+      </c>
+      <c r="T26" s="12">
+        <v>2</v>
+      </c>
+      <c r="U26" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V26" s="20" t="s">
+      <c r="V26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W26" s="10" t="s">
+      <c r="W26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="10" t="s">
+      <c r="X26" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="21"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="13"/>
       <c r="P27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
     </row>
     <row r="28" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="22"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="14"/>
       <c r="P28" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="22">
         <v>42</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="20">
-        <v>3</v>
-      </c>
-      <c r="M29" s="20">
+      <c r="L29" s="12">
+        <v>2</v>
+      </c>
+      <c r="M29" s="12">
         <v>5</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="31">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="O29" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>173</v>
       </c>
       <c r="P29" s="6" t="s">
@@ -2795,127 +2795,127 @@
       <c r="R29" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="20">
-        <v>2</v>
-      </c>
-      <c r="T29" s="20">
-        <v>2</v>
-      </c>
-      <c r="U29" s="31">
+      <c r="S29" s="12">
+        <v>2</v>
+      </c>
+      <c r="T29" s="12">
+        <v>2</v>
+      </c>
+      <c r="U29" s="48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V29" s="20" t="s">
+      <c r="V29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="34" t="s">
+      <c r="W29" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="X29" s="34" t="s">
+      <c r="X29" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="21"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="13"/>
       <c r="P30" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
     </row>
     <row r="31" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="22"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="14"/>
       <c r="P31" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
     </row>
     <row r="32" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="22">
         <v>42</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="12">
         <v>1</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="12">
         <v>5</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O32" s="20" t="s">
+      <c r="O32" s="12" t="s">
         <v>174</v>
       </c>
       <c r="P32" s="6" t="s">
@@ -2927,127 +2927,127 @@
       <c r="R32" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S32" s="30">
+      <c r="S32" s="15">
         <v>1</v>
       </c>
-      <c r="T32" s="20">
-        <v>2</v>
-      </c>
-      <c r="U32" s="23">
+      <c r="T32" s="12">
+        <v>2</v>
+      </c>
+      <c r="U32" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V32" s="9" t="s">
+      <c r="V32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W32" s="10" t="s">
+      <c r="W32" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X32" s="10" t="s">
+      <c r="X32" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="21"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="13"/>
       <c r="P33" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
     </row>
     <row r="34" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="22"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="14"/>
       <c r="P34" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
     </row>
     <row r="35" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="22">
         <v>42</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="12">
         <v>1</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="12">
         <v>5</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O35" s="20" t="s">
+      <c r="O35" s="12" t="s">
         <v>10</v>
       </c>
       <c r="P35" s="6" t="s">
@@ -3059,127 +3059,127 @@
       <c r="R35" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="12">
         <v>1</v>
       </c>
-      <c r="T35" s="20">
-        <v>2</v>
-      </c>
-      <c r="U35" s="23">
+      <c r="T35" s="12">
+        <v>2</v>
+      </c>
+      <c r="U35" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V35" s="20" t="s">
+      <c r="V35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W35" s="10" t="s">
+      <c r="W35" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X35" s="10" t="s">
+      <c r="X35" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="21"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="13"/>
       <c r="P36" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="22"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="14"/>
       <c r="P37" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
     </row>
     <row r="38" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="22">
         <v>42</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="12">
         <v>1</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="12">
         <v>5</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O38" s="20" t="s">
+      <c r="O38" s="12" t="s">
         <v>10</v>
       </c>
       <c r="P38" s="6" t="s">
@@ -3191,127 +3191,127 @@
       <c r="R38" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S38" s="20">
+      <c r="S38" s="12">
         <v>1</v>
       </c>
-      <c r="T38" s="20">
-        <v>2</v>
-      </c>
-      <c r="U38" s="23">
+      <c r="T38" s="12">
+        <v>2</v>
+      </c>
+      <c r="U38" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V38" s="20" t="s">
+      <c r="V38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W38" s="10" t="s">
+      <c r="W38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X38" s="10" t="s">
+      <c r="X38" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="21"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="13"/>
       <c r="P39" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
     </row>
     <row r="40" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="22"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="14"/>
       <c r="P40" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
     </row>
     <row r="41" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="22">
         <v>42</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="K41" s="27" t="s">
+      <c r="K41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="12">
         <v>1</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="12">
         <v>5</v>
       </c>
-      <c r="N41" s="30">
+      <c r="N41" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O41" s="20" t="s">
+      <c r="O41" s="12" t="s">
         <v>10</v>
       </c>
       <c r="P41" s="6" t="s">
@@ -3323,127 +3323,127 @@
       <c r="R41" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S41" s="20">
+      <c r="S41" s="12">
         <v>1</v>
       </c>
-      <c r="T41" s="20">
-        <v>2</v>
-      </c>
-      <c r="U41" s="23">
+      <c r="T41" s="12">
+        <v>2</v>
+      </c>
+      <c r="U41" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V41" s="20" t="s">
+      <c r="V41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W41" s="10" t="s">
+      <c r="W41" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X41" s="10" t="s">
+      <c r="X41" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="21"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="13"/>
       <c r="P42" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="22"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="14"/>
       <c r="P43" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="22">
         <v>42</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="K44" s="27" t="s">
+      <c r="K44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="12">
         <v>1</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="12">
         <v>5</v>
       </c>
-      <c r="N44" s="30">
+      <c r="N44" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O44" s="20" t="s">
+      <c r="O44" s="12" t="s">
         <v>10</v>
       </c>
       <c r="P44" s="6" t="s">
@@ -3455,127 +3455,127 @@
       <c r="R44" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S44" s="20">
+      <c r="S44" s="12">
         <v>1</v>
       </c>
-      <c r="T44" s="20">
-        <v>2</v>
-      </c>
-      <c r="U44" s="23">
+      <c r="T44" s="12">
+        <v>2</v>
+      </c>
+      <c r="U44" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V44" s="20" t="s">
+      <c r="V44" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W44" s="10" t="s">
+      <c r="W44" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X44" s="10" t="s">
+      <c r="X44" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="21"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="13"/>
       <c r="P45" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
     </row>
     <row r="46" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="22"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="14"/>
       <c r="P46" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
     </row>
     <row r="47" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="22">
         <v>42</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="K47" s="27" t="s">
+      <c r="K47" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="12">
         <v>1</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="12">
         <v>5</v>
       </c>
-      <c r="N47" s="30">
+      <c r="N47" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O47" s="20" t="s">
+      <c r="O47" s="12" t="s">
         <v>10</v>
       </c>
       <c r="P47" s="6" t="s">
@@ -3587,127 +3587,127 @@
       <c r="R47" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S47" s="20">
+      <c r="S47" s="12">
         <v>1</v>
       </c>
-      <c r="T47" s="20">
-        <v>2</v>
-      </c>
-      <c r="U47" s="23">
+      <c r="T47" s="12">
+        <v>2</v>
+      </c>
+      <c r="U47" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V47" s="20" t="s">
+      <c r="V47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="10" t="s">
+      <c r="W47" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X47" s="10" t="s">
+      <c r="X47" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="21"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="13"/>
       <c r="P48" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
     </row>
     <row r="49" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="22"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="14"/>
       <c r="P49" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
     </row>
     <row r="50" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="22">
         <v>42</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="H50" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K50" s="27" t="s">
+      <c r="K50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="20">
-        <v>2</v>
-      </c>
-      <c r="M50" s="20">
+      <c r="L50" s="12">
+        <v>2</v>
+      </c>
+      <c r="M50" s="12">
         <v>5</v>
       </c>
-      <c r="N50" s="30">
+      <c r="N50" s="15">
         <f t="shared" ref="N50:N80" si="6">L50*M50</f>
         <v>10</v>
       </c>
-      <c r="O50" s="20" t="s">
+      <c r="O50" s="12" t="s">
         <v>52</v>
       </c>
       <c r="P50" s="6" t="s">
@@ -3719,127 +3719,127 @@
       <c r="R50" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S50" s="30">
+      <c r="S50" s="15">
         <v>1</v>
       </c>
-      <c r="T50" s="20">
-        <v>2</v>
-      </c>
-      <c r="U50" s="23">
+      <c r="T50" s="12">
+        <v>2</v>
+      </c>
+      <c r="U50" s="16">
         <f t="shared" ref="U50:U77" si="7">S50*T50</f>
         <v>2</v>
       </c>
-      <c r="V50" s="9" t="s">
+      <c r="V50" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="W50" s="10" t="s">
+      <c r="W50" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X50" s="10" t="s">
+      <c r="X50" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="21"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="13"/>
       <c r="P51" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
     </row>
     <row r="52" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="22"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="14"/>
       <c r="P52" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
     </row>
     <row r="53" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="22">
         <v>42</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I53" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="J53" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="K53" s="27" t="s">
+      <c r="K53" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L53" s="20">
-        <v>2</v>
-      </c>
-      <c r="M53" s="20">
+      <c r="L53" s="12">
+        <v>2</v>
+      </c>
+      <c r="M53" s="12">
         <v>5</v>
       </c>
-      <c r="N53" s="30">
+      <c r="N53" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O53" s="20" t="s">
+      <c r="O53" s="12" t="s">
         <v>173</v>
       </c>
       <c r="P53" s="6" t="s">
@@ -3851,127 +3851,127 @@
       <c r="R53" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S53" s="20">
+      <c r="S53" s="12">
         <v>1</v>
       </c>
-      <c r="T53" s="20">
-        <v>2</v>
-      </c>
-      <c r="U53" s="23">
+      <c r="T53" s="12">
+        <v>2</v>
+      </c>
+      <c r="U53" s="16">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V53" s="20" t="s">
+      <c r="V53" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W53" s="10" t="s">
+      <c r="W53" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X53" s="10" t="s">
+      <c r="X53" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="21"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="13"/>
       <c r="P54" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
     </row>
     <row r="55" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="22"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="14"/>
       <c r="P55" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
     </row>
     <row r="56" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="22">
         <v>42</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="H56" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="K56" s="27" t="s">
+      <c r="K56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L56" s="20">
-        <v>2</v>
-      </c>
-      <c r="M56" s="20">
+      <c r="L56" s="12">
+        <v>2</v>
+      </c>
+      <c r="M56" s="12">
         <v>5</v>
       </c>
-      <c r="N56" s="30">
+      <c r="N56" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O56" s="20" t="s">
+      <c r="O56" s="12" t="s">
         <v>173</v>
       </c>
       <c r="P56" s="6" t="s">
@@ -3983,84 +3983,84 @@
       <c r="R56" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S56" s="30">
+      <c r="S56" s="15">
         <v>1</v>
       </c>
-      <c r="T56" s="20">
-        <v>2</v>
-      </c>
-      <c r="U56" s="23">
+      <c r="T56" s="12">
+        <v>2</v>
+      </c>
+      <c r="U56" s="16">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V56" s="9" t="s">
+      <c r="V56" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="W56" s="10" t="s">
+      <c r="W56" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X56" s="10" t="s">
+      <c r="X56" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="21"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="13"/>
       <c r="P57" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
     </row>
     <row r="58" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="16" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="22" t="s">
+      <c r="C58" s="24"/>
+      <c r="D58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="22" t="s">
+      <c r="F58" s="16"/>
+      <c r="G58" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I58" s="26" t="s">
+      <c r="I58" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J58" s="26" t="s">
+      <c r="J58" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="29"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="22" t="s">
+      <c r="K58" s="11"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="14" t="s">
         <v>53</v>
       </c>
       <c r="P58" s="6" t="s">
@@ -4068,58 +4068,58 @@
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
     </row>
     <row r="59" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="22">
         <v>42</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H59" s="24" t="s">
+      <c r="H59" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I59" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="K59" s="27" t="s">
+      <c r="K59" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="12">
         <v>1</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="12">
         <v>5</v>
       </c>
-      <c r="N59" s="30">
+      <c r="N59" s="15">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="O59" s="20" t="s">
+      <c r="O59" s="12" t="s">
         <v>174</v>
       </c>
       <c r="P59" s="6" t="s">
@@ -4131,131 +4131,131 @@
       <c r="R59" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S59" s="30">
+      <c r="S59" s="15">
         <v>1</v>
       </c>
-      <c r="T59" s="20">
-        <v>2</v>
-      </c>
-      <c r="U59" s="23">
+      <c r="T59" s="12">
+        <v>2</v>
+      </c>
+      <c r="U59" s="16">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V59" s="9" t="s">
+      <c r="V59" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="W59" s="10" t="s">
+      <c r="W59" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X59" s="10" t="s">
+      <c r="X59" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="21"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="13"/>
       <c r="P60" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
     </row>
     <row r="61" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="26" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26" t="s">
+      <c r="I61" s="27"/>
+      <c r="J61" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="22"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="14"/>
       <c r="P61" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
     </row>
     <row r="62" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="22">
         <v>42</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I62" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J62" s="24" t="s">
+      <c r="J62" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="K62" s="27" t="s">
+      <c r="K62" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L62" s="20">
-        <v>3</v>
-      </c>
-      <c r="M62" s="20">
+      <c r="L62" s="12">
+        <v>2</v>
+      </c>
+      <c r="M62" s="12">
         <v>5</v>
       </c>
-      <c r="N62" s="30">
+      <c r="N62" s="15">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="O62" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="12" t="s">
         <v>15</v>
       </c>
       <c r="P62" s="6" t="s">
@@ -4267,127 +4267,127 @@
       <c r="R62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S62" s="30">
-        <v>2</v>
-      </c>
-      <c r="T62" s="20">
-        <v>2</v>
-      </c>
-      <c r="U62" s="23">
+      <c r="S62" s="15">
+        <v>2</v>
+      </c>
+      <c r="T62" s="12">
+        <v>2</v>
+      </c>
+      <c r="U62" s="16">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="V62" s="9" t="s">
+      <c r="V62" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="W62" s="10" t="s">
+      <c r="W62" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X62" s="10" t="s">
+      <c r="X62" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="21"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="13"/>
       <c r="P63" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
     </row>
     <row r="64" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="22"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="14"/>
       <c r="P64" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="18"/>
+      <c r="X64" s="18"/>
     </row>
     <row r="65" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="22">
         <v>42</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H65" s="24" t="s">
+      <c r="H65" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="I65" s="24" t="s">
+      <c r="I65" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="J65" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K65" s="27" t="s">
+      <c r="K65" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L65" s="20">
-        <v>2</v>
-      </c>
-      <c r="M65" s="20">
+      <c r="L65" s="12">
+        <v>2</v>
+      </c>
+      <c r="M65" s="12">
         <v>5</v>
       </c>
-      <c r="N65" s="30">
+      <c r="N65" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O65" s="20" t="s">
+      <c r="O65" s="12" t="s">
         <v>15</v>
       </c>
       <c r="P65" s="6" t="s">
@@ -4395,42 +4395,42 @@
       </c>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="20">
+      <c r="S65" s="12">
         <v>1</v>
       </c>
-      <c r="T65" s="20">
-        <v>2</v>
-      </c>
-      <c r="U65" s="23">
+      <c r="T65" s="12">
+        <v>2</v>
+      </c>
+      <c r="U65" s="16">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V65" s="20" t="s">
+      <c r="V65" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="W65" s="10" t="s">
+      <c r="W65" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X65" s="10" t="s">
+      <c r="X65" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="21"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="13"/>
       <c r="P66" s="6" t="s">
         <v>62</v>
       </c>
@@ -4440,86 +4440,86 @@
       <c r="R66" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
     </row>
     <row r="67" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="22"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="14"/>
       <c r="P67" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="22"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
     </row>
     <row r="68" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="22">
         <v>42</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="24" t="s">
+      <c r="H68" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="J68" s="24" t="s">
+      <c r="J68" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="K68" s="27" t="s">
+      <c r="K68" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L68" s="20">
+      <c r="L68" s="12">
         <v>1</v>
       </c>
-      <c r="M68" s="20">
+      <c r="M68" s="12">
         <v>5</v>
       </c>
-      <c r="N68" s="30">
+      <c r="N68" s="15">
         <f t="shared" ref="N68" si="8">L68*M68</f>
         <v>5</v>
       </c>
-      <c r="O68" s="20" t="s">
+      <c r="O68" s="12" t="s">
         <v>10</v>
       </c>
       <c r="P68" s="7" t="s">
@@ -4527,42 +4527,42 @@
       </c>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="30">
+      <c r="S68" s="15">
         <v>1</v>
       </c>
-      <c r="T68" s="20">
-        <v>2</v>
-      </c>
-      <c r="U68" s="23">
+      <c r="T68" s="12">
+        <v>2</v>
+      </c>
+      <c r="U68" s="16">
         <f t="shared" ref="U68" si="9">S68*T68</f>
         <v>2</v>
       </c>
-      <c r="V68" s="9" t="s">
+      <c r="V68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W68" s="10" t="s">
+      <c r="W68" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X68" s="10" t="s">
+      <c r="X68" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="21"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="13"/>
       <c r="P69" s="7" t="s">
         <v>62</v>
       </c>
@@ -4572,86 +4572,86 @@
       <c r="R69" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S69" s="30"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
     </row>
     <row r="70" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="22"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="14"/>
       <c r="P70" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="22"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="18"/>
     </row>
     <row r="71" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="22">
         <v>42</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H71" s="24" t="s">
+      <c r="H71" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="I71" s="24" t="s">
+      <c r="I71" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J71" s="24" t="s">
+      <c r="J71" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="K71" s="27" t="s">
+      <c r="K71" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L71" s="20">
+      <c r="L71" s="12">
         <v>1</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M71" s="12">
         <v>5</v>
       </c>
-      <c r="N71" s="30">
+      <c r="N71" s="15">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="O71" s="20" t="s">
+      <c r="O71" s="12" t="s">
         <v>10</v>
       </c>
       <c r="P71" s="6" t="s">
@@ -4659,42 +4659,42 @@
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="30">
+      <c r="S71" s="15">
         <v>1</v>
       </c>
-      <c r="T71" s="20">
-        <v>2</v>
-      </c>
-      <c r="U71" s="23">
+      <c r="T71" s="12">
+        <v>2</v>
+      </c>
+      <c r="U71" s="16">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V71" s="9" t="s">
+      <c r="V71" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="W71" s="10" t="s">
+      <c r="W71" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X71" s="10" t="s">
+      <c r="X71" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="21"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="13"/>
       <c r="P72" s="6" t="s">
         <v>62</v>
       </c>
@@ -4704,86 +4704,86 @@
       <c r="R72" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S72" s="30"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
     </row>
     <row r="73" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="22"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="14"/>
       <c r="P73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="18"/>
+      <c r="X73" s="18"/>
     </row>
     <row r="74" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="22">
         <v>42</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H74" s="24" t="s">
+      <c r="H74" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="I74" s="24" t="s">
+      <c r="I74" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="J74" s="24" t="s">
+      <c r="J74" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="K74" s="27" t="s">
+      <c r="K74" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L74" s="20">
-        <v>2</v>
-      </c>
-      <c r="M74" s="20">
+      <c r="L74" s="12">
+        <v>2</v>
+      </c>
+      <c r="M74" s="12">
         <v>5</v>
       </c>
-      <c r="N74" s="30">
+      <c r="N74" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O74" s="20" t="s">
+      <c r="O74" s="12" t="s">
         <v>15</v>
       </c>
       <c r="P74" s="6" t="s">
@@ -4791,42 +4791,42 @@
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="30">
+      <c r="S74" s="15">
         <v>1</v>
       </c>
-      <c r="T74" s="20">
-        <v>2</v>
-      </c>
-      <c r="U74" s="23">
+      <c r="T74" s="12">
+        <v>2</v>
+      </c>
+      <c r="U74" s="16">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V74" s="9" t="s">
+      <c r="V74" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="W74" s="10" t="s">
+      <c r="W74" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X74" s="10" t="s">
+      <c r="X74" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="21"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="13"/>
       <c r="P75" s="6" t="s">
         <v>62</v>
       </c>
@@ -4836,86 +4836,86 @@
       <c r="R75" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S75" s="30"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
     </row>
     <row r="76" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="22"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="14"/>
       <c r="P76" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-      <c r="S76" s="30"/>
-      <c r="T76" s="22"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="18"/>
+      <c r="X76" s="18"/>
     </row>
     <row r="77" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="22">
         <v>42</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="24" t="s">
+      <c r="H77" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I77" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="J77" s="24" t="s">
+      <c r="J77" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="K77" s="27" t="s">
+      <c r="K77" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L77" s="20">
-        <v>2</v>
-      </c>
-      <c r="M77" s="20">
+      <c r="L77" s="12">
+        <v>2</v>
+      </c>
+      <c r="M77" s="12">
         <v>5</v>
       </c>
-      <c r="N77" s="30">
+      <c r="N77" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O77" s="20" t="s">
+      <c r="O77" s="12" t="s">
         <v>52</v>
       </c>
       <c r="P77" s="6" t="s">
@@ -4923,42 +4923,42 @@
       </c>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
-      <c r="S77" s="30">
+      <c r="S77" s="15">
         <v>1</v>
       </c>
-      <c r="T77" s="20">
+      <c r="T77" s="12">
         <v>3</v>
       </c>
-      <c r="U77" s="23">
+      <c r="U77" s="16">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="V77" s="9" t="s">
+      <c r="V77" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="W77" s="10" t="s">
+      <c r="W77" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X77" s="10" t="s">
+      <c r="X77" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="21"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="13"/>
       <c r="P78" s="6" t="s">
         <v>62</v>
       </c>
@@ -4968,86 +4968,86 @@
       <c r="R78" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S78" s="30"/>
-      <c r="T78" s="21"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="18"/>
     </row>
     <row r="79" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="22"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="14"/>
       <c r="P79" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="30"/>
-      <c r="T79" s="22"/>
-      <c r="U79" s="23"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
     </row>
     <row r="80" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="22">
         <v>42</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F80" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H80" s="24" t="s">
+      <c r="H80" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="I80" s="24" t="s">
+      <c r="I80" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="J80" s="24" t="s">
+      <c r="J80" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="K80" s="27" t="s">
+      <c r="K80" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L80" s="20">
-        <v>2</v>
-      </c>
-      <c r="M80" s="20">
+      <c r="L80" s="12">
+        <v>2</v>
+      </c>
+      <c r="M80" s="12">
         <v>5</v>
       </c>
-      <c r="N80" s="30">
+      <c r="N80" s="15">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O80" s="20" t="s">
+      <c r="O80" s="12" t="s">
         <v>52</v>
       </c>
       <c r="P80" s="6" t="s">
@@ -5055,42 +5055,42 @@
       </c>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="30">
+      <c r="S80" s="15">
         <v>1</v>
       </c>
-      <c r="T80" s="20">
+      <c r="T80" s="12">
         <v>4</v>
       </c>
-      <c r="U80" s="23">
+      <c r="U80" s="16">
         <f t="shared" ref="U80" si="10">S80*T80</f>
         <v>4</v>
       </c>
-      <c r="V80" s="9" t="s">
+      <c r="V80" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="W80" s="10" t="s">
+      <c r="W80" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="X80" s="10" t="s">
+      <c r="X80" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="21"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="13"/>
       <c r="P81" s="6" t="s">
         <v>62</v>
       </c>
@@ -5100,40 +5100,40 @@
       <c r="R81" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S81" s="30"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="10"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
     </row>
     <row r="82" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="22"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="14"/>
       <c r="P82" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="18"/>
+      <c r="X82" s="18"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="O83" s="3"/>
@@ -5146,69 +5146,487 @@
   </sheetData>
   <autoFilter ref="B4:X82"/>
   <mergeCells count="568">
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="L77:L79"/>
-    <mergeCell ref="N77:N79"/>
-    <mergeCell ref="O77:O79"/>
-    <mergeCell ref="S77:S79"/>
-    <mergeCell ref="T77:T79"/>
-    <mergeCell ref="U77:U79"/>
-    <mergeCell ref="V77:V79"/>
-    <mergeCell ref="W77:W79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="N71:N73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="S71:S73"/>
-    <mergeCell ref="T71:T73"/>
-    <mergeCell ref="U71:U73"/>
-    <mergeCell ref="V71:V73"/>
-    <mergeCell ref="W71:W73"/>
-    <mergeCell ref="X77:X79"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="N74:N76"/>
-    <mergeCell ref="O74:O76"/>
-    <mergeCell ref="S74:S76"/>
-    <mergeCell ref="T74:T76"/>
-    <mergeCell ref="U74:U76"/>
-    <mergeCell ref="V74:V76"/>
-    <mergeCell ref="W74:W76"/>
-    <mergeCell ref="X74:X76"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="K71:K73"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="N65:N67"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="T65:T67"/>
-    <mergeCell ref="U65:U67"/>
-    <mergeCell ref="V65:V67"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="S68:S70"/>
+    <mergeCell ref="T68:T70"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="V80:V82"/>
+    <mergeCell ref="W80:W82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="N80:N82"/>
+    <mergeCell ref="O80:O82"/>
+    <mergeCell ref="S80:S82"/>
+    <mergeCell ref="X80:X82"/>
+    <mergeCell ref="T80:T82"/>
+    <mergeCell ref="U80:U82"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="M74:M76"/>
+    <mergeCell ref="X71:X73"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="U62:U64"/>
+    <mergeCell ref="V62:V64"/>
+    <mergeCell ref="W62:W64"/>
+    <mergeCell ref="X62:X64"/>
+    <mergeCell ref="U68:U70"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="M56:M58"/>
+    <mergeCell ref="V68:V70"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="N62:N64"/>
+    <mergeCell ref="O62:O64"/>
+    <mergeCell ref="S62:S64"/>
+    <mergeCell ref="T62:T64"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="X56:X58"/>
+    <mergeCell ref="X59:X61"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="N1:O3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="S2:V3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="U26:U28"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="U38:U40"/>
+    <mergeCell ref="V38:V40"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="T44:T46"/>
+    <mergeCell ref="U44:U46"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="T50:T52"/>
+    <mergeCell ref="U50:U52"/>
+    <mergeCell ref="V50:V52"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="O56:O58"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="T56:T58"/>
+    <mergeCell ref="U56:U58"/>
+    <mergeCell ref="U53:U55"/>
     <mergeCell ref="V53:V55"/>
     <mergeCell ref="W53:W55"/>
     <mergeCell ref="X53:X55"/>
@@ -5233,487 +5651,69 @@
     <mergeCell ref="V59:V61"/>
     <mergeCell ref="W59:W61"/>
     <mergeCell ref="N53:N55"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="N56:N58"/>
-    <mergeCell ref="O56:O58"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="T56:T58"/>
-    <mergeCell ref="U56:U58"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="O50:O52"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="T50:T52"/>
-    <mergeCell ref="U50:U52"/>
-    <mergeCell ref="V50:V52"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="T44:T46"/>
-    <mergeCell ref="U44:U46"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="U41:U43"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="U38:U40"/>
-    <mergeCell ref="V38:V40"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="U26:U28"/>
-    <mergeCell ref="V26:V28"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="N1:O3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="S2:V3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="U62:U64"/>
-    <mergeCell ref="V62:V64"/>
-    <mergeCell ref="W62:W64"/>
-    <mergeCell ref="X62:X64"/>
-    <mergeCell ref="U68:U70"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="M56:M58"/>
-    <mergeCell ref="V68:V70"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="K62:K64"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="N62:N64"/>
-    <mergeCell ref="O62:O64"/>
-    <mergeCell ref="S62:S64"/>
-    <mergeCell ref="T62:T64"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="X56:X58"/>
-    <mergeCell ref="X59:X61"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="X80:X82"/>
-    <mergeCell ref="T80:T82"/>
-    <mergeCell ref="U80:U82"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="M77:M79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="M74:M76"/>
-    <mergeCell ref="X71:X73"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="V80:V82"/>
-    <mergeCell ref="W80:W82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="N80:N82"/>
-    <mergeCell ref="O80:O82"/>
-    <mergeCell ref="S80:S82"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="V20:V22"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:N70"/>
-    <mergeCell ref="O68:O70"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="T68:T70"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="N65:N67"/>
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="T65:T67"/>
+    <mergeCell ref="U65:U67"/>
+    <mergeCell ref="V65:V67"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="N71:N73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="S71:S73"/>
+    <mergeCell ref="T71:T73"/>
+    <mergeCell ref="U71:U73"/>
+    <mergeCell ref="V71:V73"/>
+    <mergeCell ref="W71:W73"/>
+    <mergeCell ref="X77:X79"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="N74:N76"/>
+    <mergeCell ref="O74:O76"/>
+    <mergeCell ref="S74:S76"/>
+    <mergeCell ref="T74:T76"/>
+    <mergeCell ref="U74:U76"/>
+    <mergeCell ref="V74:V76"/>
+    <mergeCell ref="W74:W76"/>
+    <mergeCell ref="X74:X76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="L77:L79"/>
+    <mergeCell ref="N77:N79"/>
+    <mergeCell ref="O77:O79"/>
+    <mergeCell ref="S77:S79"/>
+    <mergeCell ref="T77:T79"/>
+    <mergeCell ref="U77:U79"/>
+    <mergeCell ref="V77:V79"/>
+    <mergeCell ref="W77:W79"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/0. FMEA SW Vaildation.xlsx
+++ b/0. FMEA SW Vaildation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\남윤수\Desktop\SW Validation\SW Validation (정현우 연구원 의견 반영)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\METABIOMED\1_System\iDOLPHIN\SoftwareValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20340" yWindow="0" windowWidth="28800" windowHeight="12975"/>
+    <workbookView xWindow="21270" yWindow="0" windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1050,40 +1050,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,6 +1085,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,13 +1106,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1131,6 +1152,23 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1161,44 +1199,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1489,9 +1489,9 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L80" sqref="L80:L82"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1518,137 +1518,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="F1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="40" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="42"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="53"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="36" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="44" t="s">
+      <c r="Q2" s="48"/>
+      <c r="R2" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="41" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
     </row>
     <row r="4" spans="1:24" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="1" t="s">
         <v>152</v>
       </c>
@@ -1661,10 +1661,10 @@
       <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="Q4" s="35"/>
+      <c r="Q4" s="46"/>
       <c r="R4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1680,54 +1680,54 @@
       <c r="V4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <v>42</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="12">
-        <v>2</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="L5" s="20">
+        <v>2</v>
+      </c>
+      <c r="M5" s="20">
         <v>5</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="30">
         <f t="shared" ref="N5:N47" si="0">L5*M5</f>
         <v>10</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -1739,127 +1739,127 @@
       <c r="R5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S5" s="15">
-        <v>2</v>
-      </c>
-      <c r="T5" s="16">
-        <v>2</v>
-      </c>
-      <c r="U5" s="16">
+      <c r="S5" s="30">
+        <v>2</v>
+      </c>
+      <c r="T5" s="23">
+        <v>2</v>
+      </c>
+      <c r="U5" s="23">
         <f t="shared" ref="U5:U47" si="1">S5*T5</f>
         <v>4</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="W5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="22"/>
       <c r="P7" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="17">
         <v>42</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="12">
-        <v>2</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="L8" s="20">
+        <v>2</v>
+      </c>
+      <c r="M8" s="20">
         <v>5</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="20" t="s">
         <v>50</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -1871,127 +1871,127 @@
       <c r="R8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S8" s="31">
-        <v>2</v>
-      </c>
-      <c r="T8" s="16">
-        <v>2</v>
-      </c>
-      <c r="U8" s="16">
+      <c r="S8" s="37">
+        <v>2</v>
+      </c>
+      <c r="T8" s="23">
+        <v>2</v>
+      </c>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="V8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="W8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X8" s="18" t="s">
+      <c r="X8" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="17">
         <v>42</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="20">
         <v>1</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="20">
         <v>5</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="20" t="s">
         <v>51</v>
       </c>
       <c r="P11" s="6" t="s">
@@ -2003,127 +2003,127 @@
       <c r="R11" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="20">
         <v>1</v>
       </c>
-      <c r="T11" s="12">
-        <v>2</v>
-      </c>
-      <c r="U11" s="16">
+      <c r="T11" s="20">
+        <v>2</v>
+      </c>
+      <c r="U11" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="V11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="17">
         <v>42</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="12">
-        <v>2</v>
-      </c>
-      <c r="M14" s="12">
+      <c r="L14" s="20">
+        <v>2</v>
+      </c>
+      <c r="M14" s="20">
         <v>5</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="20" t="s">
         <v>173</v>
       </c>
       <c r="P14" s="6" t="s">
@@ -2135,127 +2135,127 @@
       <c r="R14" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="20">
         <v>1</v>
       </c>
-      <c r="T14" s="12">
-        <v>2</v>
-      </c>
-      <c r="U14" s="16">
+      <c r="T14" s="20">
+        <v>2</v>
+      </c>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V14" s="12" t="s">
+      <c r="V14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="18" t="s">
+      <c r="W14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X14" s="18" t="s">
+      <c r="X14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="17">
         <v>42</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="12">
-        <v>2</v>
-      </c>
-      <c r="M17" s="12">
+      <c r="L17" s="20">
+        <v>2</v>
+      </c>
+      <c r="M17" s="20">
         <v>5</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="30">
         <f t="shared" ref="N17" si="2">L17*M17</f>
         <v>10</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="20" t="s">
         <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
@@ -2267,127 +2267,127 @@
       <c r="R17" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="30">
         <v>1</v>
       </c>
-      <c r="T17" s="16">
-        <v>2</v>
-      </c>
-      <c r="U17" s="16">
+      <c r="T17" s="23">
+        <v>2</v>
+      </c>
+      <c r="U17" s="23">
         <f t="shared" ref="U17" si="3">S17*T17</f>
         <v>2</v>
       </c>
-      <c r="V17" s="17" t="s">
+      <c r="V17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X17" s="18" t="s">
+      <c r="X17" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="22"/>
       <c r="P19" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="17">
         <v>42</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="20">
         <v>1</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="20">
         <v>5</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="30">
         <f t="shared" ref="N20" si="4">L20*M20</f>
         <v>5</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="20" t="s">
         <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
@@ -2399,127 +2399,127 @@
       <c r="R20" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S20" s="30">
         <v>1</v>
       </c>
-      <c r="T20" s="16">
-        <v>2</v>
-      </c>
-      <c r="U20" s="16">
+      <c r="T20" s="23">
+        <v>2</v>
+      </c>
+      <c r="U20" s="23">
         <f t="shared" ref="U20" si="5">S20*T20</f>
         <v>2</v>
       </c>
-      <c r="V20" s="17" t="s">
+      <c r="V20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="18" t="s">
+      <c r="W20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="18" t="s">
+      <c r="X20" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="21"/>
       <c r="P21" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="22"/>
       <c r="P22" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="17">
         <v>42</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="12">
-        <v>2</v>
-      </c>
-      <c r="M23" s="12">
+      <c r="L23" s="20">
+        <v>2</v>
+      </c>
+      <c r="M23" s="20">
         <v>5</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="20" t="s">
         <v>50</v>
       </c>
       <c r="P23" s="6" t="s">
@@ -2531,127 +2531,127 @@
       <c r="R23" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S23" s="15">
+      <c r="S23" s="30">
         <v>1</v>
       </c>
-      <c r="T23" s="16">
-        <v>2</v>
-      </c>
-      <c r="U23" s="16">
+      <c r="T23" s="23">
+        <v>2</v>
+      </c>
+      <c r="U23" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="W23" s="18" t="s">
+      <c r="W23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X23" s="18" t="s">
+      <c r="X23" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="21"/>
       <c r="P24" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="22"/>
       <c r="P25" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="17">
         <v>42</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="12">
-        <v>2</v>
-      </c>
-      <c r="M26" s="12">
+      <c r="L26" s="20">
+        <v>2</v>
+      </c>
+      <c r="M26" s="20">
         <v>5</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="O26" s="20" t="s">
         <v>173</v>
       </c>
       <c r="P26" s="6" t="s">
@@ -2663,127 +2663,127 @@
       <c r="R26" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S26" s="12">
-        <v>2</v>
-      </c>
-      <c r="T26" s="12">
-        <v>2</v>
-      </c>
-      <c r="U26" s="16">
+      <c r="S26" s="20">
+        <v>2</v>
+      </c>
+      <c r="T26" s="20">
+        <v>2</v>
+      </c>
+      <c r="U26" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V26" s="12" t="s">
+      <c r="V26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W26" s="18" t="s">
+      <c r="W26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="18" t="s">
+      <c r="X26" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="21"/>
       <c r="P27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
     </row>
     <row r="28" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="22"/>
       <c r="P28" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="17">
         <v>42</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="12">
-        <v>2</v>
-      </c>
-      <c r="M29" s="12">
+      <c r="L29" s="20">
+        <v>2</v>
+      </c>
+      <c r="M29" s="20">
         <v>5</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N29" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" s="20" t="s">
         <v>173</v>
       </c>
       <c r="P29" s="6" t="s">
@@ -2795,127 +2795,127 @@
       <c r="R29" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="12">
-        <v>2</v>
-      </c>
-      <c r="T29" s="12">
-        <v>2</v>
-      </c>
-      <c r="U29" s="48">
+      <c r="S29" s="20">
+        <v>2</v>
+      </c>
+      <c r="T29" s="20">
+        <v>2</v>
+      </c>
+      <c r="U29" s="31">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V29" s="12" t="s">
+      <c r="V29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="51" t="s">
+      <c r="W29" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="X29" s="51" t="s">
+      <c r="X29" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="21"/>
       <c r="P30" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
     </row>
     <row r="31" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="14"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="22"/>
       <c r="P31" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
     </row>
     <row r="32" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="17">
         <v>42</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="20">
         <v>1</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="20">
         <v>5</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="O32" s="20" t="s">
         <v>174</v>
       </c>
       <c r="P32" s="6" t="s">
@@ -2927,127 +2927,127 @@
       <c r="R32" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S32" s="15">
+      <c r="S32" s="30">
         <v>1</v>
       </c>
-      <c r="T32" s="12">
-        <v>2</v>
-      </c>
-      <c r="U32" s="16">
+      <c r="T32" s="20">
+        <v>2</v>
+      </c>
+      <c r="U32" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V32" s="17" t="s">
+      <c r="V32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W32" s="18" t="s">
+      <c r="W32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X32" s="18" t="s">
+      <c r="X32" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="21"/>
       <c r="P33" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
     </row>
     <row r="34" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="14"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="22"/>
       <c r="P34" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
     </row>
     <row r="35" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="17">
         <v>42</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I35" s="25" t="s">
+      <c r="I35" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="20">
         <v>1</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="20">
         <v>5</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O35" s="12" t="s">
+      <c r="O35" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P35" s="6" t="s">
@@ -3059,127 +3059,127 @@
       <c r="R35" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="20">
         <v>1</v>
       </c>
-      <c r="T35" s="12">
-        <v>2</v>
-      </c>
-      <c r="U35" s="16">
+      <c r="T35" s="20">
+        <v>2</v>
+      </c>
+      <c r="U35" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V35" s="12" t="s">
+      <c r="V35" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W35" s="18" t="s">
+      <c r="W35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X35" s="18" t="s">
+      <c r="X35" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="13"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="21"/>
       <c r="P36" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="22"/>
       <c r="P37" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="17">
         <v>42</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="20">
         <v>1</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="20">
         <v>5</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O38" s="12" t="s">
+      <c r="O38" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P38" s="6" t="s">
@@ -3191,127 +3191,127 @@
       <c r="R38" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="20">
         <v>1</v>
       </c>
-      <c r="T38" s="12">
-        <v>2</v>
-      </c>
-      <c r="U38" s="16">
+      <c r="T38" s="20">
+        <v>2</v>
+      </c>
+      <c r="U38" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V38" s="12" t="s">
+      <c r="V38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W38" s="18" t="s">
+      <c r="W38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X38" s="18" t="s">
+      <c r="X38" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="21"/>
       <c r="P39" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
     </row>
     <row r="40" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="22"/>
       <c r="P40" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
     </row>
     <row r="41" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="17">
         <v>42</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="J41" s="25" t="s">
+      <c r="J41" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="20">
         <v>1</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="20">
         <v>5</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O41" s="12" t="s">
+      <c r="O41" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P41" s="6" t="s">
@@ -3323,127 +3323,127 @@
       <c r="R41" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="20">
         <v>1</v>
       </c>
-      <c r="T41" s="12">
-        <v>2</v>
-      </c>
-      <c r="U41" s="16">
+      <c r="T41" s="20">
+        <v>2</v>
+      </c>
+      <c r="U41" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V41" s="12" t="s">
+      <c r="V41" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W41" s="18" t="s">
+      <c r="W41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X41" s="18" t="s">
+      <c r="X41" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="13"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="21"/>
       <c r="P42" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
     </row>
     <row r="43" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="14"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="22"/>
       <c r="P43" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
     </row>
     <row r="44" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="17">
         <v>42</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="J44" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="20">
         <v>1</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="20">
         <v>5</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N44" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O44" s="12" t="s">
+      <c r="O44" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P44" s="6" t="s">
@@ -3455,127 +3455,127 @@
       <c r="R44" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S44" s="12">
+      <c r="S44" s="20">
         <v>1</v>
       </c>
-      <c r="T44" s="12">
-        <v>2</v>
-      </c>
-      <c r="U44" s="16">
+      <c r="T44" s="20">
+        <v>2</v>
+      </c>
+      <c r="U44" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V44" s="12" t="s">
+      <c r="V44" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W44" s="18" t="s">
+      <c r="W44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X44" s="18" t="s">
+      <c r="X44" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="13"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="21"/>
       <c r="P45" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
     </row>
     <row r="46" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="14"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="22"/>
       <c r="P46" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
     </row>
     <row r="47" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="17">
         <v>42</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="20">
         <v>1</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="20">
         <v>5</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N47" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O47" s="12" t="s">
+      <c r="O47" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P47" s="6" t="s">
@@ -3587,127 +3587,127 @@
       <c r="R47" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S47" s="12">
+      <c r="S47" s="20">
         <v>1</v>
       </c>
-      <c r="T47" s="12">
-        <v>2</v>
-      </c>
-      <c r="U47" s="16">
+      <c r="T47" s="20">
+        <v>2</v>
+      </c>
+      <c r="U47" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V47" s="12" t="s">
+      <c r="V47" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="18" t="s">
+      <c r="W47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X47" s="18" t="s">
+      <c r="X47" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="13"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="21"/>
       <c r="P48" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
     </row>
     <row r="49" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="14"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="22"/>
       <c r="P49" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
     </row>
     <row r="50" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="17">
         <v>42</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="I50" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="12">
-        <v>2</v>
-      </c>
-      <c r="M50" s="12">
+      <c r="L50" s="20">
+        <v>2</v>
+      </c>
+      <c r="M50" s="20">
         <v>5</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N50" s="30">
         <f t="shared" ref="N50:N80" si="6">L50*M50</f>
         <v>10</v>
       </c>
-      <c r="O50" s="12" t="s">
+      <c r="O50" s="20" t="s">
         <v>52</v>
       </c>
       <c r="P50" s="6" t="s">
@@ -3719,127 +3719,127 @@
       <c r="R50" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S50" s="15">
+      <c r="S50" s="30">
         <v>1</v>
       </c>
-      <c r="T50" s="12">
-        <v>2</v>
-      </c>
-      <c r="U50" s="16">
+      <c r="T50" s="20">
+        <v>2</v>
+      </c>
+      <c r="U50" s="23">
         <f t="shared" ref="U50:U77" si="7">S50*T50</f>
         <v>2</v>
       </c>
-      <c r="V50" s="17" t="s">
+      <c r="V50" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="W50" s="18" t="s">
+      <c r="W50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X50" s="18" t="s">
+      <c r="X50" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="13"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="21"/>
       <c r="P51" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
     </row>
     <row r="52" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="22"/>
       <c r="P52" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
     </row>
     <row r="53" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="17">
         <v>42</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I53" s="25" t="s">
+      <c r="I53" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J53" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="K53" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L53" s="12">
-        <v>2</v>
-      </c>
-      <c r="M53" s="12">
+      <c r="L53" s="20">
+        <v>2</v>
+      </c>
+      <c r="M53" s="20">
         <v>5</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N53" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O53" s="12" t="s">
+      <c r="O53" s="20" t="s">
         <v>173</v>
       </c>
       <c r="P53" s="6" t="s">
@@ -3851,127 +3851,127 @@
       <c r="R53" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S53" s="12">
+      <c r="S53" s="20">
         <v>1</v>
       </c>
-      <c r="T53" s="12">
-        <v>2</v>
-      </c>
-      <c r="U53" s="16">
+      <c r="T53" s="20">
+        <v>2</v>
+      </c>
+      <c r="U53" s="23">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V53" s="12" t="s">
+      <c r="V53" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="W53" s="18" t="s">
+      <c r="W53" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X53" s="18" t="s">
+      <c r="X53" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="13"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="21"/>
       <c r="P54" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
     </row>
     <row r="55" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="14"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="22"/>
       <c r="P55" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
     </row>
     <row r="56" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="17">
         <v>42</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H56" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I56" s="25" t="s">
+      <c r="I56" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="J56" s="25" t="s">
+      <c r="J56" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L56" s="12">
-        <v>2</v>
-      </c>
-      <c r="M56" s="12">
+      <c r="L56" s="20">
+        <v>2</v>
+      </c>
+      <c r="M56" s="20">
         <v>5</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O56" s="12" t="s">
+      <c r="O56" s="20" t="s">
         <v>173</v>
       </c>
       <c r="P56" s="6" t="s">
@@ -3983,84 +3983,84 @@
       <c r="R56" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S56" s="15">
+      <c r="S56" s="30">
         <v>1</v>
       </c>
-      <c r="T56" s="12">
-        <v>2</v>
-      </c>
-      <c r="U56" s="16">
+      <c r="T56" s="20">
+        <v>2</v>
+      </c>
+      <c r="U56" s="23">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V56" s="17" t="s">
+      <c r="V56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="W56" s="18" t="s">
+      <c r="W56" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X56" s="18" t="s">
+      <c r="X56" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="13"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="21"/>
       <c r="P57" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
     </row>
     <row r="58" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
-      <c r="B58" s="21" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="14" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="14" t="s">
+      <c r="F58" s="23"/>
+      <c r="G58" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H58" s="27" t="s">
+      <c r="H58" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I58" s="27" t="s">
+      <c r="I58" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J58" s="27" t="s">
+      <c r="J58" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="11"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="14" t="s">
+      <c r="K58" s="29"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="22" t="s">
         <v>53</v>
       </c>
       <c r="P58" s="6" t="s">
@@ -4068,58 +4068,58 @@
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
     </row>
     <row r="59" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="17">
         <v>42</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="H59" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="I59" s="25" t="s">
+      <c r="I59" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="K59" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="20">
         <v>1</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M59" s="20">
         <v>5</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N59" s="30">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="O59" s="12" t="s">
+      <c r="O59" s="20" t="s">
         <v>174</v>
       </c>
       <c r="P59" s="6" t="s">
@@ -4131,131 +4131,131 @@
       <c r="R59" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S59" s="15">
+      <c r="S59" s="30">
         <v>1</v>
       </c>
-      <c r="T59" s="12">
-        <v>2</v>
-      </c>
-      <c r="U59" s="16">
+      <c r="T59" s="20">
+        <v>2</v>
+      </c>
+      <c r="U59" s="23">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V59" s="17" t="s">
+      <c r="V59" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="W59" s="18" t="s">
+      <c r="W59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X59" s="18" t="s">
+      <c r="X59" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="13"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="21"/>
       <c r="P60" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
     </row>
     <row r="61" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="27" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27" t="s">
+      <c r="I61" s="26"/>
+      <c r="J61" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K61" s="11"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="14"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="22"/>
       <c r="P61" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
     </row>
     <row r="62" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="17">
         <v>42</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="12" t="s">
+      <c r="G62" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I62" s="25" t="s">
+      <c r="I62" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J62" s="25" t="s">
+      <c r="J62" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="K62" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L62" s="12">
-        <v>2</v>
-      </c>
-      <c r="M62" s="12">
+      <c r="L62" s="20">
+        <v>2</v>
+      </c>
+      <c r="M62" s="20">
         <v>5</v>
       </c>
-      <c r="N62" s="15">
+      <c r="N62" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O62" s="12" t="s">
+      <c r="O62" s="20" t="s">
         <v>15</v>
       </c>
       <c r="P62" s="6" t="s">
@@ -4267,127 +4267,127 @@
       <c r="R62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S62" s="15">
-        <v>2</v>
-      </c>
-      <c r="T62" s="12">
-        <v>2</v>
-      </c>
-      <c r="U62" s="16">
+      <c r="S62" s="30">
+        <v>2</v>
+      </c>
+      <c r="T62" s="20">
+        <v>2</v>
+      </c>
+      <c r="U62" s="23">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="V62" s="17" t="s">
+      <c r="V62" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="W62" s="18" t="s">
+      <c r="W62" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X62" s="18" t="s">
+      <c r="X62" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="13"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="21"/>
       <c r="P63" s="6" t="s">
         <v>62</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
     </row>
     <row r="64" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="30"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="14"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="22"/>
       <c r="P64" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="18"/>
-      <c r="X64" s="18"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
     </row>
     <row r="65" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="17">
         <v>42</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="I65" s="25" t="s">
+      <c r="I65" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="J65" s="25" t="s">
+      <c r="J65" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="K65" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L65" s="12">
-        <v>2</v>
-      </c>
-      <c r="M65" s="12">
+      <c r="L65" s="20">
+        <v>2</v>
+      </c>
+      <c r="M65" s="20">
         <v>5</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N65" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O65" s="12" t="s">
+      <c r="O65" s="20" t="s">
         <v>15</v>
       </c>
       <c r="P65" s="6" t="s">
@@ -4395,42 +4395,42 @@
       </c>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="12">
+      <c r="S65" s="20">
         <v>1</v>
       </c>
-      <c r="T65" s="12">
-        <v>2</v>
-      </c>
-      <c r="U65" s="16">
+      <c r="T65" s="20">
+        <v>2</v>
+      </c>
+      <c r="U65" s="23">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V65" s="12" t="s">
+      <c r="V65" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="W65" s="18" t="s">
+      <c r="W65" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X65" s="18" t="s">
+      <c r="X65" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="29"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="13"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="21"/>
       <c r="P66" s="6" t="s">
         <v>62</v>
       </c>
@@ -4440,86 +4440,86 @@
       <c r="R66" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
     </row>
     <row r="67" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="14"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="22"/>
       <c r="P67" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="14"/>
-      <c r="W67" s="18"/>
-      <c r="X67" s="18"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
     </row>
     <row r="68" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="17">
         <v>42</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="G68" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="H68" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="I68" s="25" t="s">
+      <c r="I68" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="J68" s="25" t="s">
+      <c r="J68" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="K68" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L68" s="12">
+      <c r="L68" s="20">
         <v>1</v>
       </c>
-      <c r="M68" s="12">
+      <c r="M68" s="20">
         <v>5</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N68" s="30">
         <f t="shared" ref="N68" si="8">L68*M68</f>
         <v>5</v>
       </c>
-      <c r="O68" s="12" t="s">
+      <c r="O68" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P68" s="7" t="s">
@@ -4527,42 +4527,42 @@
       </c>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="15">
+      <c r="S68" s="30">
         <v>1</v>
       </c>
-      <c r="T68" s="12">
-        <v>2</v>
-      </c>
-      <c r="U68" s="16">
+      <c r="T68" s="20">
+        <v>2</v>
+      </c>
+      <c r="U68" s="23">
         <f t="shared" ref="U68" si="9">S68*T68</f>
         <v>2</v>
       </c>
-      <c r="V68" s="17" t="s">
+      <c r="V68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W68" s="18" t="s">
+      <c r="W68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X68" s="18" t="s">
+      <c r="X68" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="13"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="21"/>
       <c r="P69" s="7" t="s">
         <v>62</v>
       </c>
@@ -4572,86 +4572,86 @@
       <c r="R69" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S69" s="15"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="17"/>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
     </row>
     <row r="70" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="30"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="14"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="22"/>
       <c r="P70" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="17"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
     </row>
     <row r="71" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="17">
         <v>42</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E71" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="I71" s="25" t="s">
+      <c r="I71" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J71" s="25" t="s">
+      <c r="J71" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L71" s="12">
+      <c r="L71" s="20">
         <v>1</v>
       </c>
-      <c r="M71" s="12">
+      <c r="M71" s="20">
         <v>5</v>
       </c>
-      <c r="N71" s="15">
+      <c r="N71" s="30">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="O71" s="12" t="s">
+      <c r="O71" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P71" s="6" t="s">
@@ -4659,42 +4659,42 @@
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="15">
+      <c r="S71" s="30">
         <v>1</v>
       </c>
-      <c r="T71" s="12">
-        <v>2</v>
-      </c>
-      <c r="U71" s="16">
+      <c r="T71" s="20">
+        <v>2</v>
+      </c>
+      <c r="U71" s="23">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V71" s="17" t="s">
+      <c r="V71" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="W71" s="18" t="s">
+      <c r="W71" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X71" s="18" t="s">
+      <c r="X71" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="13"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="21"/>
       <c r="P72" s="6" t="s">
         <v>62</v>
       </c>
@@ -4704,86 +4704,86 @@
       <c r="R72" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S72" s="15"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
     </row>
     <row r="73" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="30"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="14"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="22"/>
       <c r="P73" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="18"/>
-      <c r="X73" s="18"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
     </row>
     <row r="74" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="17">
         <v>42</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G74" s="12" t="s">
+      <c r="G74" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H74" s="25" t="s">
+      <c r="H74" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I74" s="25" t="s">
+      <c r="I74" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="J74" s="25" t="s">
+      <c r="J74" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="K74" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L74" s="12">
-        <v>2</v>
-      </c>
-      <c r="M74" s="12">
+      <c r="L74" s="20">
+        <v>2</v>
+      </c>
+      <c r="M74" s="20">
         <v>5</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N74" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O74" s="12" t="s">
+      <c r="O74" s="20" t="s">
         <v>15</v>
       </c>
       <c r="P74" s="6" t="s">
@@ -4791,42 +4791,42 @@
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="15">
+      <c r="S74" s="30">
         <v>1</v>
       </c>
-      <c r="T74" s="12">
-        <v>2</v>
-      </c>
-      <c r="U74" s="16">
+      <c r="T74" s="20">
+        <v>2</v>
+      </c>
+      <c r="U74" s="23">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="V74" s="17" t="s">
+      <c r="V74" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="W74" s="18" t="s">
+      <c r="W74" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X74" s="18" t="s">
+      <c r="X74" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="13"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="21"/>
       <c r="P75" s="6" t="s">
         <v>62</v>
       </c>
@@ -4836,86 +4836,86 @@
       <c r="R75" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S75" s="15"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
+      <c r="S75" s="30"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
     </row>
     <row r="76" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="30"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="14"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="22"/>
       <c r="P76" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="17"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="18"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
     </row>
     <row r="77" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="17">
         <v>42</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="25" t="s">
+      <c r="H77" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="I77" s="25" t="s">
+      <c r="I77" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="J77" s="25" t="s">
+      <c r="J77" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="K77" s="9" t="s">
+      <c r="K77" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L77" s="12">
-        <v>2</v>
-      </c>
-      <c r="M77" s="12">
+      <c r="L77" s="20">
+        <v>2</v>
+      </c>
+      <c r="M77" s="20">
         <v>5</v>
       </c>
-      <c r="N77" s="15">
+      <c r="N77" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O77" s="12" t="s">
+      <c r="O77" s="20" t="s">
         <v>52</v>
       </c>
       <c r="P77" s="6" t="s">
@@ -4923,42 +4923,42 @@
       </c>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
-      <c r="S77" s="15">
+      <c r="S77" s="30">
         <v>1</v>
       </c>
-      <c r="T77" s="12">
+      <c r="T77" s="20">
         <v>3</v>
       </c>
-      <c r="U77" s="16">
+      <c r="U77" s="23">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="V77" s="17" t="s">
+      <c r="V77" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="W77" s="18" t="s">
+      <c r="W77" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X77" s="18" t="s">
+      <c r="X77" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="13"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="21"/>
       <c r="P78" s="6" t="s">
         <v>62</v>
       </c>
@@ -4968,86 +4968,86 @@
       <c r="R78" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S78" s="15"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="18"/>
-      <c r="X78" s="18"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
     </row>
     <row r="79" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="30"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="14"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="22"/>
       <c r="P79" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="22"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
     </row>
     <row r="80" spans="1:24" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="17">
         <v>42</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G80" s="12" t="s">
+      <c r="G80" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="H80" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="I80" s="25" t="s">
+      <c r="I80" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="J80" s="25" t="s">
+      <c r="J80" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K80" s="9" t="s">
+      <c r="K80" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L80" s="12">
-        <v>2</v>
-      </c>
-      <c r="M80" s="12">
+      <c r="L80" s="20">
+        <v>2</v>
+      </c>
+      <c r="M80" s="20">
         <v>5</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N80" s="30">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="O80" s="12" t="s">
+      <c r="O80" s="20" t="s">
         <v>52</v>
       </c>
       <c r="P80" s="6" t="s">
@@ -5055,42 +5055,42 @@
       </c>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="15">
+      <c r="S80" s="30">
         <v>1</v>
       </c>
-      <c r="T80" s="12">
+      <c r="T80" s="20">
         <v>4</v>
       </c>
-      <c r="U80" s="16">
+      <c r="U80" s="23">
         <f t="shared" ref="U80" si="10">S80*T80</f>
         <v>4</v>
       </c>
-      <c r="V80" s="17" t="s">
+      <c r="V80" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="W80" s="18" t="s">
+      <c r="W80" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X80" s="18" t="s">
+      <c r="X80" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:24" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="13"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="21"/>
       <c r="P81" s="6" t="s">
         <v>62</v>
       </c>
@@ -5100,40 +5100,40 @@
       <c r="R81" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S81" s="15"/>
-      <c r="T81" s="13"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="21"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
     </row>
     <row r="82" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="14"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="22"/>
       <c r="P82" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="14"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="O83" s="3"/>
@@ -5146,6 +5146,550 @@
   </sheetData>
   <autoFilter ref="B4:X82"/>
   <mergeCells count="568">
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="L77:L79"/>
+    <mergeCell ref="N77:N79"/>
+    <mergeCell ref="O77:O79"/>
+    <mergeCell ref="S77:S79"/>
+    <mergeCell ref="T77:T79"/>
+    <mergeCell ref="U77:U79"/>
+    <mergeCell ref="V77:V79"/>
+    <mergeCell ref="W77:W79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="N71:N73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="S71:S73"/>
+    <mergeCell ref="T71:T73"/>
+    <mergeCell ref="U71:U73"/>
+    <mergeCell ref="V71:V73"/>
+    <mergeCell ref="W71:W73"/>
+    <mergeCell ref="X77:X79"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="N74:N76"/>
+    <mergeCell ref="O74:O76"/>
+    <mergeCell ref="S74:S76"/>
+    <mergeCell ref="T74:T76"/>
+    <mergeCell ref="U74:U76"/>
+    <mergeCell ref="V74:V76"/>
+    <mergeCell ref="W74:W76"/>
+    <mergeCell ref="X74:X76"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="N65:N67"/>
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="T65:T67"/>
+    <mergeCell ref="U65:U67"/>
+    <mergeCell ref="V65:V67"/>
+    <mergeCell ref="W65:W67"/>
+    <mergeCell ref="X65:X67"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="W53:W55"/>
+    <mergeCell ref="X53:X55"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="S59:S61"/>
+    <mergeCell ref="T59:T61"/>
+    <mergeCell ref="U59:U61"/>
+    <mergeCell ref="V59:V61"/>
+    <mergeCell ref="W59:W61"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="O56:O58"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="T56:T58"/>
+    <mergeCell ref="U56:U58"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="T50:T52"/>
+    <mergeCell ref="U50:U52"/>
+    <mergeCell ref="V50:V52"/>
+    <mergeCell ref="W50:W52"/>
+    <mergeCell ref="X50:X52"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="T44:T46"/>
+    <mergeCell ref="U44:U46"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="W44:W46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="X44:X46"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="W41:W43"/>
+    <mergeCell ref="X41:X43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="U38:U40"/>
+    <mergeCell ref="V38:V40"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="W35:W37"/>
+    <mergeCell ref="X35:X37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="X32:X34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="X26:X28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="U26:U28"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="W26:W28"/>
+    <mergeCell ref="X23:X25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="N1:O3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="S2:V3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="U62:U64"/>
+    <mergeCell ref="V62:V64"/>
+    <mergeCell ref="W62:W64"/>
+    <mergeCell ref="X62:X64"/>
+    <mergeCell ref="U68:U70"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="M56:M58"/>
+    <mergeCell ref="V68:V70"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="N62:N64"/>
+    <mergeCell ref="O62:O64"/>
+    <mergeCell ref="S62:S64"/>
+    <mergeCell ref="T62:T64"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="X56:X58"/>
+    <mergeCell ref="X59:X61"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="X80:X82"/>
+    <mergeCell ref="T80:T82"/>
+    <mergeCell ref="U80:U82"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="M74:M76"/>
+    <mergeCell ref="X71:X73"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="V80:V82"/>
+    <mergeCell ref="W80:W82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="N80:N82"/>
+    <mergeCell ref="O80:O82"/>
+    <mergeCell ref="S80:S82"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="X29:X31"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
     <mergeCell ref="V20:V22"/>
     <mergeCell ref="W20:W22"/>
     <mergeCell ref="X20:X22"/>
@@ -5170,553 +5714,9 @@
     <mergeCell ref="K20:K22"/>
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="M20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="X29:X31"/>
-    <mergeCell ref="W29:W31"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="V80:V82"/>
-    <mergeCell ref="W80:W82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="N80:N82"/>
-    <mergeCell ref="O80:O82"/>
-    <mergeCell ref="S80:S82"/>
-    <mergeCell ref="X80:X82"/>
-    <mergeCell ref="T80:T82"/>
-    <mergeCell ref="U80:U82"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="M77:M79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="M74:M76"/>
-    <mergeCell ref="X71:X73"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="U62:U64"/>
-    <mergeCell ref="V62:V64"/>
-    <mergeCell ref="W62:W64"/>
-    <mergeCell ref="X62:X64"/>
-    <mergeCell ref="U68:U70"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="M56:M58"/>
-    <mergeCell ref="V68:V70"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="K62:K64"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="N62:N64"/>
-    <mergeCell ref="O62:O64"/>
-    <mergeCell ref="S62:S64"/>
-    <mergeCell ref="T62:T64"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="X56:X58"/>
-    <mergeCell ref="X59:X61"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="N1:O3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="S2:V3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="X23:X25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="X26:X28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="U26:U28"/>
-    <mergeCell ref="V26:V28"/>
-    <mergeCell ref="W26:W28"/>
-    <mergeCell ref="X32:X34"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="W35:W37"/>
-    <mergeCell ref="X35:X37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="U38:U40"/>
-    <mergeCell ref="V38:V40"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X44:X46"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="U41:U43"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="W41:W43"/>
-    <mergeCell ref="X41:X43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="T44:T46"/>
-    <mergeCell ref="U44:U46"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="W44:W46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="O50:O52"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="T50:T52"/>
-    <mergeCell ref="U50:U52"/>
-    <mergeCell ref="V50:V52"/>
-    <mergeCell ref="W50:W52"/>
-    <mergeCell ref="X50:X52"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="N56:N58"/>
-    <mergeCell ref="O56:O58"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="T56:T58"/>
-    <mergeCell ref="U56:U58"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="W53:W55"/>
-    <mergeCell ref="X53:X55"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="N59:N61"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="S59:S61"/>
-    <mergeCell ref="T59:T61"/>
-    <mergeCell ref="U59:U61"/>
-    <mergeCell ref="V59:V61"/>
-    <mergeCell ref="W59:W61"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="N65:N67"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="T65:T67"/>
-    <mergeCell ref="U65:U67"/>
-    <mergeCell ref="V65:V67"/>
-    <mergeCell ref="W65:W67"/>
-    <mergeCell ref="X65:X67"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="K71:K73"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="N71:N73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="S71:S73"/>
-    <mergeCell ref="T71:T73"/>
-    <mergeCell ref="U71:U73"/>
-    <mergeCell ref="V71:V73"/>
-    <mergeCell ref="W71:W73"/>
-    <mergeCell ref="X77:X79"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="N74:N76"/>
-    <mergeCell ref="O74:O76"/>
-    <mergeCell ref="S74:S76"/>
-    <mergeCell ref="T74:T76"/>
-    <mergeCell ref="U74:U76"/>
-    <mergeCell ref="V74:V76"/>
-    <mergeCell ref="W74:W76"/>
-    <mergeCell ref="X74:X76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="L77:L79"/>
-    <mergeCell ref="N77:N79"/>
-    <mergeCell ref="O77:O79"/>
-    <mergeCell ref="S77:S79"/>
-    <mergeCell ref="T77:T79"/>
-    <mergeCell ref="U77:U79"/>
-    <mergeCell ref="V77:V79"/>
-    <mergeCell ref="W77:W79"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="32" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>